--- a/prj_BuscaEstabelecimento/data/Relatorio_Sintetico_prj_BuscaEstabelecimento_112025.xlsx
+++ b/prj_BuscaEstabelecimento/data/Relatorio_Sintetico_prj_BuscaEstabelecimento_112025.xlsx
@@ -719,21 +719,21 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>10/11/2025 10:24:31</t>
+          <t>10/11/2025 13:08:17</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025 10:26:49</t>
+          <t>10/11/2025 13:10:39</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
